--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionKwantWrd</t>
+          <t>testUnionTypeMetKard[].unionString</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -419,7 +419,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>testUnionType.unionString</t>
+          <t>testUnionType.unionKwantWrd</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionString</t>
+          <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>testUnionType.unionKwantWrd</t>
+          <t>testUnionType.unionString</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>testUnionType.unionString</t>
+          <t>testUnionType.unionKwantWrd</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -658,12 +658,12 @@
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>testUnionType.unionString</t>
+          <t>testUnionType.unionKwantWrd</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionString</t>
+          <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -658,12 +658,12 @@
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>testUnionType.unionKwantWrd</t>
+          <t>testUnionType.unionString</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionKwantWrd</t>
+          <t>testUnionTypeMetKard[].unionString</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -658,12 +658,12 @@
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>testUnionType.unionKwantWrd</t>
+          <t>testUnionType.unionString</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionString</t>
+          <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -413,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="20" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -463,6 +463,7 @@
     <col width="20" customWidth="1" min="40" max="40"/>
     <col width="20" customWidth="1" min="41" max="41"/>
     <col width="20" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="43" max="43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,185 +494,190 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>geometry</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>isActief</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>notitie</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>standaardBestekPostNummer[]</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>testBooleanField</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>testComplexType.testBooleanField</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>testComplexType.testComplexType2.testKwantWrd</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>testComplexType.testComplexType2.testStringField</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>testComplexType.testComplexType2MetKard[].testKwantWrd</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>testComplexType.testComplexType2MetKard[].testStringField</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>testComplexType.testKwantWrd</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>testComplexType.testKwantWrdMetKard[]</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>testComplexType.testStringField</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>testComplexType.testStringFieldMetKard[]</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>testComplexTypeMetKard[].testBooleanField</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>testComplexTypeMetKard[].testComplexType2.testKwantWrd</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>testComplexTypeMetKard[].testComplexType2.testStringField</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>testComplexTypeMetKard[].testKwantWrd</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>testComplexTypeMetKard[].testStringField</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>testDateField</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>testDateTimeField</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>testDecimalField</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>testDecimalFieldMetKard[]</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>testEenvoudigType</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>testEenvoudigTypeMetKard[]</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>testIntegerField</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>testIntegerFieldMetKard[]</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>testKeuzelijst</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>testKeuzelijstMetKard[]</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>testKwantWrd</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>testKwantWrdMetKard[]</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>testStringField</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>testStringFieldMetKard[]</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>testTimeField</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>testUnionType.unionKwantWrd</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>theoretischeLevensduur</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>toestand</t>
         </is>
@@ -683,29 +689,28 @@
           <t>https://wegenenverkeer.data.vlaanderen.be/ns/onderdeel#AllCasesTestClass</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>myDummyString</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>testclass_keep_attributes</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>myDummyInitialString</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation sqref="F2:F1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2:G1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE,-"</formula1>
     </dataValidation>
-    <dataValidation sqref="F2:F1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"TRUE,FALSE,-"</formula1>
-    </dataValidation>
-    <dataValidation sqref="I2:I1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"TRUE,FALSE,-"</formula1>
-    </dataValidation>
-    <dataValidation sqref="I2:I1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2:G1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE,-"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
@@ -714,19 +719,25 @@
     <dataValidation sqref="J2:J1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE,-"</formula1>
     </dataValidation>
-    <dataValidation sqref="S2:S1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="K2:K1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE,-"</formula1>
     </dataValidation>
-    <dataValidation sqref="S2:S1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="K2:K1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE,-"</formula1>
     </dataValidation>
-    <dataValidation sqref="AF2:AF1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>Keuzelijsten!$A$2:$A$6</formula1>
+    <dataValidation sqref="T2:T1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"TRUE,FALSE,-"</formula1>
+    </dataValidation>
+    <dataValidation sqref="T2:T1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"TRUE,FALSE,-"</formula1>
     </dataValidation>
     <dataValidation sqref="AG2:AG1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Keuzelijsten!$A$2:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="AP2:AP1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AH2:AH1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>Keuzelijsten!$A$2:$A$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="AQ2:AQ1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>Keuzelijsten!$B$2:$B$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -669,7 +669,7 @@
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionString</t>
+          <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionType.unionKwantWrd</t>
+          <t>testUnionType.unionString</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionType.unionString</t>
+          <t>testUnionType.unionKwantWrd</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -664,12 +664,12 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionType.unionKwantWrd</t>
+          <t>testUnionType.unionString</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionKwantWrd</t>
+          <t>testUnionTypeMetKard[].unionString</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -669,7 +669,7 @@
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionKwantWrd</t>
+          <t>testUnionTypeMetKard[].unionString</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -664,12 +664,12 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionType.unionKwantWrd</t>
+          <t>testUnionType.unionString</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionString</t>
+          <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">

--- a/UnitTests/output.xlsx
+++ b/UnitTests/output.xlsx
@@ -664,12 +664,12 @@
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>testUnionType.unionString</t>
+          <t>testUnionType.unionKwantWrd</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>testUnionTypeMetKard[].unionString</t>
+          <t>testUnionTypeMetKard[].unionKwantWrd</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
